--- a/Percent_Ana/DISCus_percent_ana_NEW_05082015.xlsx
+++ b/Percent_Ana/DISCus_percent_ana_NEW_05082015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="0" windowWidth="23580" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="27140" yWindow="-8400" windowWidth="23580" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Percentage analysis DISCus NEW (5/8/15)</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>DISCus (Paired End)</t>
+  </si>
+  <si>
+    <t>Yellow = NEW Analysis (reference could not be found for manual count, so redid read mapping)</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -532,7 +535,7 @@
     <col min="6" max="7" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +543,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -551,7 +554,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -574,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -602,123 +605,126 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
-        <v>332</v>
-      </c>
-      <c r="C6" s="2">
-        <v>340</v>
-      </c>
-      <c r="D6" s="2">
-        <v>72</v>
-      </c>
-      <c r="E6" s="2">
-        <v>91</v>
+      <c r="B6" s="1">
+        <v>339</v>
+      </c>
+      <c r="C6" s="1">
+        <v>346</v>
+      </c>
+      <c r="D6" s="1">
+        <v>69</v>
+      </c>
+      <c r="E6" s="1">
+        <v>82</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>80.47904191616766</v>
+        <v>81.937799043062199</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" ref="G6:G10" si="1">100-F6</f>
-        <v>19.52095808383234</v>
+        <v>18.062200956937801</v>
       </c>
       <c r="H6">
         <f>0.5</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
-        <v>260</v>
-      </c>
-      <c r="C7" s="2">
-        <v>256</v>
-      </c>
-      <c r="D7" s="2">
-        <v>144</v>
-      </c>
-      <c r="E7" s="2">
-        <v>157</v>
+      <c r="B7" s="1">
+        <v>264</v>
+      </c>
+      <c r="C7" s="1">
+        <v>259</v>
+      </c>
+      <c r="D7" s="1">
+        <v>145</v>
+      </c>
+      <c r="E7" s="1">
+        <v>148</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>63.157894736842103</v>
+        <v>64.093137254901961</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>36.842105263157897</v>
+        <v>35.906862745098039</v>
       </c>
       <c r="H7" s="3">
         <f>40-G7</f>
-        <v>3.1578947368421026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>4.0931372549019613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
-        <v>168</v>
-      </c>
-      <c r="C8" s="2">
-        <v>182</v>
-      </c>
-      <c r="D8" s="2">
-        <v>197</v>
-      </c>
-      <c r="E8" s="2">
-        <v>221</v>
+      <c r="B8" s="1">
+        <v>172</v>
+      </c>
+      <c r="C8" s="1">
+        <v>181</v>
+      </c>
+      <c r="D8" s="1">
+        <v>196</v>
+      </c>
+      <c r="E8" s="1">
+        <v>220</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>45.572916666666671</v>
+        <v>45.903771131339397</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v>54.427083333333329</v>
+        <v>54.096228868660603</v>
       </c>
       <c r="H8" s="3">
         <f>F8-40</f>
-        <v>5.5729166666666714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>5.903771131339397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
-        <v>96</v>
-      </c>
-      <c r="C9" s="2">
-        <v>98</v>
-      </c>
-      <c r="D9" s="2">
-        <v>269</v>
-      </c>
-      <c r="E9" s="2">
-        <v>287</v>
+      <c r="B9" s="1">
+        <v>97</v>
+      </c>
+      <c r="C9" s="1">
+        <v>94</v>
+      </c>
+      <c r="D9" s="1">
+        <v>272</v>
+      </c>
+      <c r="E9" s="1">
+        <v>286</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>25.866666666666667</v>
+        <v>25.500667556742325</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>74.133333333333326</v>
+        <v>74.499332443257671</v>
       </c>
       <c r="H9" s="3">
         <f>F9-20</f>
-        <v>5.8666666666666671</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>5.5006675567423251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -746,13 +752,13 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="H11" s="3">
         <f>AVERAGE(H5:H10)</f>
-        <v>4.5329130116959071</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>4.6829293238306136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -763,7 +769,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -786,7 +792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -814,29 +820,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="2">
-        <v>289</v>
-      </c>
-      <c r="C16" s="2">
-        <v>334</v>
-      </c>
-      <c r="D16" s="2">
-        <v>55</v>
-      </c>
-      <c r="E16" s="2">
-        <v>62</v>
+      <c r="B16" s="1">
+        <v>291</v>
+      </c>
+      <c r="C16" s="1">
+        <v>336</v>
+      </c>
+      <c r="D16" s="1">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1">
+        <v>63</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ref="F16:F20" si="2">((B16+C16)/(B16+C16+D16+E16))*100</f>
-        <v>84.189189189189179</v>
+        <v>84.274193548387103</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" ref="G16:G20" si="3">100-F16</f>
-        <v>15.810810810810821</v>
+        <v>15.725806451612897</v>
       </c>
       <c r="H16" s="5">
         <v>4.2</v>
@@ -846,83 +852,83 @@
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2">
-        <v>215</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="1">
+        <v>218</v>
+      </c>
+      <c r="C17" s="1">
         <v>247</v>
       </c>
-      <c r="D17" s="2">
-        <v>129</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="1">
+        <v>127</v>
+      </c>
+      <c r="E17" s="1">
         <v>129</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="2"/>
-        <v>64.166666666666671</v>
+        <v>64.493758668515952</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="3"/>
-        <v>35.833333333333329</v>
+        <v>35.506241331484048</v>
       </c>
       <c r="H17" s="3">
         <f>F17-60</f>
-        <v>4.1666666666666714</v>
+        <v>4.4937586685159516</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="2">
-        <v>153</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="1">
+        <v>154</v>
+      </c>
+      <c r="C18" s="1">
         <v>167</v>
       </c>
-      <c r="D18" s="2">
-        <v>208</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="1">
+        <v>204</v>
+      </c>
+      <c r="E18" s="1">
         <v>189</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="2"/>
-        <v>44.630404463040449</v>
+        <v>44.957983193277315</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="3"/>
-        <v>55.369595536959551</v>
+        <v>55.042016806722685</v>
       </c>
       <c r="H18" s="3">
         <f>F18-40</f>
-        <v>4.6304044630404491</v>
+        <v>4.9579831932773146</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="2">
-        <v>79</v>
-      </c>
-      <c r="C19" s="2">
-        <v>80</v>
-      </c>
-      <c r="D19" s="2">
-        <v>282</v>
-      </c>
-      <c r="E19" s="2">
-        <v>256</v>
+      <c r="B19" s="1">
+        <v>81</v>
+      </c>
+      <c r="C19" s="1">
+        <v>78</v>
+      </c>
+      <c r="D19" s="1">
+        <v>277</v>
+      </c>
+      <c r="E19" s="1">
+        <v>255</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="2"/>
-        <v>22.812051649928264</v>
+        <v>23.01013024602026</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="3"/>
-        <v>77.187948350071736</v>
+        <v>76.989869753979747</v>
       </c>
       <c r="H19" s="5">
         <v>2.8</v>
@@ -959,7 +965,7 @@
     <row r="21" spans="1:8">
       <c r="H21">
         <f>AVERAGE(H15:H20)</f>
-        <v>3.2661785216178534</v>
+        <v>3.3752903102988778</v>
       </c>
     </row>
   </sheetData>

--- a/Percent_Ana/DISCus_percent_ana_NEW_05082015.xlsx
+++ b/Percent_Ana/DISCus_percent_ana_NEW_05082015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="27140" yWindow="-8400" windowWidth="23580" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="27420" yWindow="-6700" windowWidth="21940" windowHeight="18860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Percentage analysis DISCus NEW (5/8/15)</t>
   </si>
@@ -70,6 +70,84 @@
   </si>
   <si>
     <t>Yellow = NEW Analysis (reference could not be found for manual count, so redid read mapping)</t>
+  </si>
+  <si>
+    <t>MANUAL COUNT</t>
+  </si>
+  <si>
+    <t>348 (19)</t>
+  </si>
+  <si>
+    <t>325 ( 29)</t>
+  </si>
+  <si>
+    <t>75 (9)</t>
+  </si>
+  <si>
+    <t>83 (7)</t>
+  </si>
+  <si>
+    <t>268 (18)</t>
+  </si>
+  <si>
+    <t>257 (21)</t>
+  </si>
+  <si>
+    <t>146 (14)</t>
+  </si>
+  <si>
+    <t>155 (10)</t>
+  </si>
+  <si>
+    <t>181 (12)</t>
+  </si>
+  <si>
+    <t>188 (19)</t>
+  </si>
+  <si>
+    <t>208 (17)</t>
+  </si>
+  <si>
+    <t>206 (12)</t>
+  </si>
+  <si>
+    <t>93 (10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97 (14) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">274 (23) </t>
+  </si>
+  <si>
+    <t>280 (15)</t>
+  </si>
+  <si>
+    <t>Average false positives</t>
+  </si>
+  <si>
+    <t>393 (27)</t>
+  </si>
+  <si>
+    <t>403 (31)</t>
+  </si>
+  <si>
+    <t>6 (4)</t>
+  </si>
+  <si>
+    <t>5 (3)</t>
+  </si>
+  <si>
+    <t>42 (8)</t>
+  </si>
+  <si>
+    <t>31 (11)</t>
+  </si>
+  <si>
+    <t>340 (28)</t>
+  </si>
+  <si>
+    <t>375 (21)</t>
   </si>
 </sst>
 </file>
@@ -104,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,7 +246,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -174,8 +258,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -183,18 +271,28 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,14 +622,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -581,25 +680,25 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
-        <v>387</v>
-      </c>
-      <c r="C5" s="2">
-        <v>406</v>
-      </c>
-      <c r="D5" s="2">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2">
-        <v>8</v>
+      <c r="B5" s="7">
+        <v>395</v>
+      </c>
+      <c r="C5" s="7">
+        <v>410</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ref="F5:F10" si="0">((B5+C5)/(B5+C5+D5+E5))*100</f>
-        <v>97.420147420147416</v>
+        <v>98.773006134969322</v>
       </c>
       <c r="G5" s="4">
         <f>100-F5</f>
-        <v>2.5798525798525844</v>
+        <v>1.2269938650306784</v>
       </c>
       <c r="H5" s="3">
         <v>2.6</v>
@@ -728,25 +827,25 @@
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="7">
         <v>41</v>
       </c>
-      <c r="C10" s="2">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2">
-        <v>328</v>
-      </c>
-      <c r="E10" s="2">
-        <v>370</v>
+      <c r="C10" s="7">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7">
+        <v>336</v>
+      </c>
+      <c r="E10" s="7">
+        <v>363</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>9.4682230869001298</v>
+        <v>9.220779220779221</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="1"/>
-        <v>90.531776913099876</v>
+        <v>90.779220779220779</v>
       </c>
       <c r="H10" s="5">
         <v>9.5</v>
@@ -796,25 +895,25 @@
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2">
-        <v>357</v>
-      </c>
-      <c r="C15" s="2">
-        <v>399</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
+      <c r="B15" s="7">
+        <v>359</v>
+      </c>
+      <c r="C15" s="7">
+        <v>401</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
       </c>
       <c r="F15" s="4">
         <f>((B15+C15)/(B15+C15+D15+E15))*100</f>
-        <v>100</v>
+        <v>99.476439790575924</v>
       </c>
       <c r="G15" s="4">
         <f>100-F15</f>
-        <v>0</v>
+        <v>0.52356020942407611</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
@@ -938,25 +1037,25 @@
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="2">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2">
-        <v>337</v>
-      </c>
-      <c r="E20" s="2">
-        <v>318</v>
+      <c r="B20" s="7">
+        <v>13</v>
+      </c>
+      <c r="C20" s="7">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7">
+        <v>329</v>
+      </c>
+      <c r="E20" s="7">
+        <v>316</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="2"/>
-        <v>3.8179148311306901</v>
+        <v>3.8748137108792844</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="3"/>
-        <v>96.182085168869307</v>
+        <v>96.12518628912072</v>
       </c>
       <c r="H20" s="6">
         <v>3.8</v>
@@ -966,6 +1065,215 @@
       <c r="H21">
         <f>AVERAGE(H15:H20)</f>
         <v>3.3752903102988778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="3">
+        <f>((393+403)/(393+403+6+5))*100</f>
+        <v>98.636926889714999</v>
+      </c>
+      <c r="G28" s="3">
+        <f>100-F28</f>
+        <v>1.3630731102850007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="3">
+        <f>((348+325)/(348+325+75+83))*100</f>
+        <v>80.986762936221425</v>
+      </c>
+      <c r="G29" s="3">
+        <f>100-F29</f>
+        <v>19.013237063778575</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="3">
+        <f>((268+257)/(268+257+146+155))*100</f>
+        <v>63.559322033898304</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" ref="G30:G32" si="4">100-F30</f>
+        <v>36.440677966101696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="3">
+        <f>((181+188)/(181+188+208+206))*100</f>
+        <v>47.126436781609193</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="4"/>
+        <v>52.873563218390807</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="3">
+        <f>((93+97)/(93+97+274+280))*100</f>
+        <v>25.537634408602152</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="4"/>
+        <v>74.462365591397855</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="3">
+        <f>((42+31)/(42+31+340+375))*100</f>
+        <v>9.2639593908629436</v>
+      </c>
+      <c r="G33" s="3">
+        <f>100-F33</f>
+        <v>90.736040609137063</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Percent_Ana/DISCus_percent_ana_NEW_05082015.xlsx
+++ b/Percent_Ana/DISCus_percent_ana_NEW_05082015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="27420" yWindow="-6700" windowWidth="21940" windowHeight="18860" tabRatio="500"/>
+    <workbookView xWindow="27400" yWindow="-6680" windowWidth="21940" windowHeight="18860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Percentage analysis DISCus NEW (5/8/15)</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>375 (21)</t>
+  </si>
+  <si>
+    <t>Difference to predicted</t>
   </si>
 </sst>
 </file>
@@ -246,7 +249,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -262,8 +265,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -277,8 +282,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -286,6 +294,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -293,6 +302,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -622,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1087,7 +1097,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="45">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1097,6 +1107,9 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
+      <c r="H26" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="10" t="s">
@@ -1145,6 +1158,9 @@
         <f>100-F28</f>
         <v>1.3630731102850007</v>
       </c>
+      <c r="H28">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
@@ -1170,6 +1186,9 @@
         <f>100-F29</f>
         <v>19.013237063778575</v>
       </c>
+      <c r="H29">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
@@ -1195,6 +1214,9 @@
         <f t="shared" ref="G30:G32" si="4">100-F30</f>
         <v>36.440677966101696</v>
       </c>
+      <c r="H30" s="12">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
@@ -1220,6 +1242,9 @@
         <f t="shared" si="4"/>
         <v>52.873563218390807</v>
       </c>
+      <c r="H31" s="12">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
@@ -1245,8 +1270,11 @@
         <f t="shared" si="4"/>
         <v>74.462365591397855</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -1270,10 +1298,43 @@
         <f>100-F33</f>
         <v>90.736040609137063</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="B34">
+        <f>(27+19+18+12+10+8)/6</f>
+        <v>15.666666666666666</v>
+      </c>
+      <c r="C34">
+        <f>(31+29+21+19+14+11)/6</f>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="D34">
+        <f>(4+9+14+17+23+28)/6</f>
+        <v>15.833333333333334</v>
+      </c>
+      <c r="E34">
+        <f>(3+7+10+12+15+21)/6</f>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="H34">
+        <f>AVERAGE(H28:H33)</f>
+        <v>0.48333333333333334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35">
+        <f>AVERAGE(B34:C34)</f>
+        <v>18.25</v>
+      </c>
+      <c r="D35">
+        <f>AVERAGE(D34:E34)</f>
+        <v>13.583333333333334</v>
       </c>
     </row>
   </sheetData>
